--- a/src/services/backend/enquiries.xlsx
+++ b/src/services/backend/enquiries.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>48f85fd8-5cda-4e7e-94db-40605811afde</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dooop</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dooop@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>785962459</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ksjdnfv</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Book enquiry for ksjdnfv</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:42:41.615185</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/services/backend/enquiries.xlsx
+++ b/src/services/backend/enquiries.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5b851e81-f027-4dda-a94c-133c783c8aa4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nasjnc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jsbcjubbs@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4554555625</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>kugshadfiuchu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Book enquiry for kugshadfiuchu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-02-20T12:18:08.004061</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
